--- a/medicine/Médecine vétérinaire/Troubles_du_stockage_des_lipides/Troubles_du_stockage_des_lipides.xlsx
+++ b/medicine/Médecine vétérinaire/Troubles_du_stockage_des_lipides/Troubles_du_stockage_des_lipides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troubles du stockage des lipides, également appelés lipidoses, sont une famille de maladies lysosomales. Ces troubles peuvent avoir des conséquences dévastatrices, car ils entraînent une accumulation de graisses sur les parois des vaisseaux suite à une mauvaise métabolisation des lipides, pouvant bloquer le flux sanguin ainsi que des lésions dans les organes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles du stockage des lipides, également appelés lipidoses, sont une famille de maladies lysosomales. Ces troubles peuvent avoir des conséquences dévastatrices, car ils entraînent une accumulation de graisses sur les parois des vaisseaux suite à une mauvaise métabolisation des lipides, pouvant bloquer le flux sanguin ainsi que des lésions dans les organes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Médecine humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les lipidoses sont une famille de maladies lysosomales :
 Maladie d'Austin
@@ -553,7 +567,9 @@
           <t>Médecine vétérinaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lipidose hépatique</t>
         </is>
